--- a/ArrayFromPycharm.xlsx
+++ b/ArrayFromPycharm.xlsx
@@ -406,13 +406,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -473,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>

--- a/ArrayFromPycharm.xlsx
+++ b/ArrayFromPycharm.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -438,10 +438,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -493,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -560,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>

--- a/ArrayFromPycharm.xlsx
+++ b/ArrayFromPycharm.xlsx
@@ -406,13 +406,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -502,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>

--- a/ArrayFromPycharm.xlsx
+++ b/ArrayFromPycharm.xlsx
@@ -403,13 +403,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -461,13 +461,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -499,13 +499,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -557,13 +557,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
